--- a/public/dat/B. TECH. II SEM DECEMBER 2020(COVID).xlsx
+++ b/public/dat/B. TECH. II SEM DECEMBER 2020(COVID).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sakshi\Study\website\Academic\Academic\public\dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7872" activeTab="3"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="568">
   <si>
     <t>Roll No.</t>
   </si>
@@ -1749,8 +1754,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2540,10 +2545,19 @@
     <xf numFmtId="1" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2551,21 +2565,6 @@
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2578,6 +2577,12 @@
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2600,7 +2605,355 @@
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="Normal 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3599,7 +3952,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DECEE0D-D7D3-4F51-B4DF-9DCBB4FC3AEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DECEE0D-D7D3-4F51-B4DF-9DCBB4FC3AEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3659,7 +4012,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786CAE3E-9480-4C34-B24F-C34C40963AA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{786CAE3E-9480-4C34-B24F-C34C40963AA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,7 +4072,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C190BA18-1ED4-4FB4-924D-7BFFACCC6562}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C190BA18-1ED4-4FB4-924D-7BFFACCC6562}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3774,7 +4127,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19383629-3CFF-446F-B5E7-3C1AE73AAB3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19383629-3CFF-446F-B5E7-3C1AE73AAB3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,7 +4187,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D15F8C-3D3C-44AF-BFB0-CBBA7BFC9A00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2D15F8C-3D3C-44AF-BFB0-CBBA7BFC9A00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,7 +4247,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7163873A-41ED-4914-83C2-6F7AD80E8CE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7163873A-41ED-4914-83C2-6F7AD80E8CE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3949,7 +4302,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACC17C9-4919-475F-8596-E6BCA4410376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ACC17C9-4919-475F-8596-E6BCA4410376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3995,7 +4348,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ECE-I"/>
@@ -4024,7 +4377,7 @@
       <sheetName val="MCA (LE)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="B5">
             <v>190090102001</v>
@@ -4842,29 +5195,29 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4913,7 +5266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4945,9 +5298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4979,6 +5333,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5154,7 +5509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5164,7 +5519,7 @@
       <selection activeCell="H4" sqref="H4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="11"/>
     <col min="2" max="3" width="26.33203125" style="11" customWidth="1"/>
@@ -5182,168 +5537,168 @@
     <col min="33" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="48.75" customHeight="1">
-      <c r="B1" s="160" t="s">
+    <row r="1" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
     </row>
-    <row r="2" spans="1:32" ht="48.75" customHeight="1">
-      <c r="B2" s="160" t="s">
+    <row r="2" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
     </row>
-    <row r="3" spans="1:32" ht="48.75" customHeight="1">
-      <c r="B3" s="161" t="s">
+    <row r="3" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="159" t="s">
         <v>520</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
     </row>
-    <row r="4" spans="1:32" ht="151.5" customHeight="1">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:32" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="155" t="s">
         <v>533</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155" t="s">
         <v>538</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>534</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159" t="s">
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155" t="s">
         <v>536</v>
       </c>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155" t="s">
         <v>566</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159" t="s">
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155" t="s">
         <v>535</v>
       </c>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
       <c r="AC4" s="117" t="s">
         <v>30</v>
       </c>
@@ -5357,13 +5712,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="57.75" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+    <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="147"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -5433,13 +5788,13 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="45" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="147" t="s">
         <v>2</v>
       </c>
@@ -5523,13 +5878,13 @@
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
     </row>
-    <row r="7" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+    <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="150" t="s">
         <v>3</v>
       </c>
@@ -5589,7 +5944,7 @@
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
     </row>
-    <row r="8" spans="1:32" ht="96.75" customHeight="1">
+    <row r="8" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>1</v>
       </c>
@@ -5691,7 +6046,7 @@
       </c>
       <c r="AF8" s="60"/>
     </row>
-    <row r="9" spans="1:32" ht="96.75" customHeight="1">
+    <row r="9" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>2</v>
       </c>
@@ -5793,7 +6148,7 @@
       </c>
       <c r="AF9" s="60"/>
     </row>
-    <row r="10" spans="1:32" ht="96.75" customHeight="1">
+    <row r="10" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>3</v>
       </c>
@@ -5895,7 +6250,7 @@
       </c>
       <c r="AF10" s="59"/>
     </row>
-    <row r="11" spans="1:32" ht="96.75" customHeight="1">
+    <row r="11" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>4</v>
       </c>
@@ -5997,7 +6352,7 @@
       </c>
       <c r="AF11" s="60"/>
     </row>
-    <row r="12" spans="1:32" ht="96.75" customHeight="1">
+    <row r="12" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
         <v>5</v>
       </c>
@@ -6099,7 +6454,7 @@
       </c>
       <c r="AF12" s="60"/>
     </row>
-    <row r="13" spans="1:32" ht="96.75" customHeight="1">
+    <row r="13" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
         <v>6</v>
       </c>
@@ -6201,7 +6556,7 @@
       </c>
       <c r="AF13" s="60"/>
     </row>
-    <row r="14" spans="1:32" ht="96.75" customHeight="1">
+    <row r="14" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
         <v>7</v>
       </c>
@@ -6303,7 +6658,7 @@
       </c>
       <c r="AF14" s="60"/>
     </row>
-    <row r="15" spans="1:32" ht="96.75" customHeight="1">
+    <row r="15" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
         <v>8</v>
       </c>
@@ -6405,7 +6760,7 @@
       </c>
       <c r="AF15" s="60"/>
     </row>
-    <row r="16" spans="1:32" ht="96.75" customHeight="1">
+    <row r="16" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
         <v>9</v>
       </c>
@@ -6507,7 +6862,7 @@
       </c>
       <c r="AF16" s="60"/>
     </row>
-    <row r="17" spans="1:32" ht="96.75" customHeight="1">
+    <row r="17" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
         <v>10</v>
       </c>
@@ -6609,7 +6964,7 @@
       </c>
       <c r="AF17" s="60"/>
     </row>
-    <row r="18" spans="1:32" ht="96.75" customHeight="1">
+    <row r="18" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
         <v>11</v>
       </c>
@@ -6711,7 +7066,7 @@
       </c>
       <c r="AF18" s="59"/>
     </row>
-    <row r="19" spans="1:32" ht="96.75" customHeight="1">
+    <row r="19" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
         <v>12</v>
       </c>
@@ -6813,7 +7168,7 @@
       </c>
       <c r="AF19" s="60"/>
     </row>
-    <row r="20" spans="1:32" ht="96.75" customHeight="1">
+    <row r="20" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
         <v>13</v>
       </c>
@@ -6915,7 +7270,7 @@
       </c>
       <c r="AF20" s="60"/>
     </row>
-    <row r="21" spans="1:32" ht="96.75" customHeight="1">
+    <row r="21" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>14</v>
       </c>
@@ -7017,7 +7372,7 @@
       </c>
       <c r="AF21" s="60"/>
     </row>
-    <row r="22" spans="1:32" ht="96.75" customHeight="1">
+    <row r="22" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
         <v>15</v>
       </c>
@@ -7119,7 +7474,7 @@
       </c>
       <c r="AF22" s="60"/>
     </row>
-    <row r="23" spans="1:32" ht="96.75" customHeight="1">
+    <row r="23" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
         <v>16</v>
       </c>
@@ -7221,7 +7576,7 @@
       </c>
       <c r="AF23" s="60"/>
     </row>
-    <row r="24" spans="1:32" ht="96.75" customHeight="1">
+    <row r="24" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
         <v>17</v>
       </c>
@@ -7323,7 +7678,7 @@
       </c>
       <c r="AF24" s="60"/>
     </row>
-    <row r="25" spans="1:32" ht="96.75" customHeight="1">
+    <row r="25" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>18</v>
       </c>
@@ -7425,7 +7780,7 @@
       </c>
       <c r="AF25" s="60"/>
     </row>
-    <row r="26" spans="1:32" ht="96.75" customHeight="1">
+    <row r="26" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
         <v>19</v>
       </c>
@@ -7527,7 +7882,7 @@
       </c>
       <c r="AF26" s="60"/>
     </row>
-    <row r="27" spans="1:32" ht="96.75" customHeight="1">
+    <row r="27" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>20</v>
       </c>
@@ -7629,7 +7984,7 @@
       </c>
       <c r="AF27" s="60"/>
     </row>
-    <row r="28" spans="1:32" ht="96.75" customHeight="1">
+    <row r="28" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
         <v>21</v>
       </c>
@@ -7731,7 +8086,7 @@
       </c>
       <c r="AF28" s="60"/>
     </row>
-    <row r="29" spans="1:32" ht="96.75" customHeight="1">
+    <row r="29" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>22</v>
       </c>
@@ -7833,7 +8188,7 @@
       </c>
       <c r="AF29" s="60"/>
     </row>
-    <row r="30" spans="1:32" ht="96.75" customHeight="1">
+    <row r="30" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
         <v>23</v>
       </c>
@@ -7935,7 +8290,7 @@
       </c>
       <c r="AF30" s="60"/>
     </row>
-    <row r="31" spans="1:32" ht="96.75" customHeight="1">
+    <row r="31" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>24</v>
       </c>
@@ -8037,7 +8392,7 @@
       </c>
       <c r="AF31" s="60"/>
     </row>
-    <row r="32" spans="1:32" ht="96.75" customHeight="1">
+    <row r="32" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
         <v>25</v>
       </c>
@@ -8139,7 +8494,7 @@
       </c>
       <c r="AF32" s="60"/>
     </row>
-    <row r="33" spans="1:32" ht="96.75" customHeight="1">
+    <row r="33" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>26</v>
       </c>
@@ -8241,7 +8596,7 @@
       </c>
       <c r="AF33" s="60"/>
     </row>
-    <row r="34" spans="1:32" ht="96.75" customHeight="1">
+    <row r="34" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
         <v>27</v>
       </c>
@@ -8343,7 +8698,7 @@
       </c>
       <c r="AF34" s="60"/>
     </row>
-    <row r="35" spans="1:32" ht="96.75" customHeight="1">
+    <row r="35" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
         <v>28</v>
       </c>
@@ -8445,7 +8800,7 @@
       </c>
       <c r="AF35" s="60"/>
     </row>
-    <row r="36" spans="1:32" ht="96.75" customHeight="1">
+    <row r="36" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
         <v>29</v>
       </c>
@@ -8547,7 +8902,7 @@
       </c>
       <c r="AF36" s="60"/>
     </row>
-    <row r="37" spans="1:32" ht="96.75" customHeight="1">
+    <row r="37" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
         <v>30</v>
       </c>
@@ -8649,7 +9004,7 @@
       </c>
       <c r="AF37" s="60"/>
     </row>
-    <row r="38" spans="1:32" ht="96.75" customHeight="1">
+    <row r="38" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
         <v>31</v>
       </c>
@@ -8751,7 +9106,7 @@
       </c>
       <c r="AF38" s="60"/>
     </row>
-    <row r="39" spans="1:32" ht="96.75" customHeight="1">
+    <row r="39" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
         <v>32</v>
       </c>
@@ -8853,7 +9208,7 @@
       </c>
       <c r="AF39" s="60"/>
     </row>
-    <row r="40" spans="1:32" ht="96.75" customHeight="1">
+    <row r="40" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
         <v>33</v>
       </c>
@@ -8955,7 +9310,7 @@
       </c>
       <c r="AF40" s="60"/>
     </row>
-    <row r="41" spans="1:32" ht="96.75" customHeight="1">
+    <row r="41" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>34</v>
       </c>
@@ -9057,7 +9412,7 @@
       </c>
       <c r="AF41" s="60"/>
     </row>
-    <row r="42" spans="1:32" ht="96.75" customHeight="1">
+    <row r="42" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
         <v>35</v>
       </c>
@@ -9159,7 +9514,7 @@
       </c>
       <c r="AF42" s="60"/>
     </row>
-    <row r="43" spans="1:32" ht="96.75" customHeight="1">
+    <row r="43" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
         <v>36</v>
       </c>
@@ -9261,7 +9616,7 @@
       </c>
       <c r="AF43" s="60"/>
     </row>
-    <row r="44" spans="1:32" ht="96.75" customHeight="1">
+    <row r="44" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
         <v>37</v>
       </c>
@@ -9363,7 +9718,7 @@
       </c>
       <c r="AF44" s="60"/>
     </row>
-    <row r="45" spans="1:32" ht="96.75" customHeight="1">
+    <row r="45" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
         <v>38</v>
       </c>
@@ -9465,7 +9820,7 @@
       </c>
       <c r="AF45" s="60"/>
     </row>
-    <row r="46" spans="1:32" ht="96.75" customHeight="1">
+    <row r="46" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
         <v>39</v>
       </c>
@@ -9569,7 +9924,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="96.75" customHeight="1">
+    <row r="47" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
         <v>40</v>
       </c>
@@ -9671,7 +10026,7 @@
       </c>
       <c r="AF47" s="60"/>
     </row>
-    <row r="48" spans="1:32" ht="96.75" customHeight="1">
+    <row r="48" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
         <v>41</v>
       </c>
@@ -9773,7 +10128,7 @@
       </c>
       <c r="AF48" s="60"/>
     </row>
-    <row r="49" spans="1:32" ht="96.75" customHeight="1">
+    <row r="49" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
         <v>42</v>
       </c>
@@ -9875,7 +10230,7 @@
       </c>
       <c r="AF49" s="60"/>
     </row>
-    <row r="50" spans="1:32" ht="96.75" customHeight="1">
+    <row r="50" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
         <v>43</v>
       </c>
@@ -9977,7 +10332,7 @@
       </c>
       <c r="AF50" s="60"/>
     </row>
-    <row r="51" spans="1:32" ht="96.75" customHeight="1">
+    <row r="51" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="74">
         <v>44</v>
       </c>
@@ -10079,7 +10434,7 @@
       </c>
       <c r="AF51" s="60"/>
     </row>
-    <row r="52" spans="1:32" ht="96.75" customHeight="1">
+    <row r="52" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="74">
         <v>45</v>
       </c>
@@ -10181,7 +10536,7 @@
       </c>
       <c r="AF52" s="60"/>
     </row>
-    <row r="53" spans="1:32" ht="96.75" customHeight="1">
+    <row r="53" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="74">
         <v>46</v>
       </c>
@@ -10283,7 +10638,7 @@
       </c>
       <c r="AF53" s="60"/>
     </row>
-    <row r="54" spans="1:32" ht="96.75" customHeight="1">
+    <row r="54" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="74">
         <v>47</v>
       </c>
@@ -10385,7 +10740,7 @@
       </c>
       <c r="AF54" s="60"/>
     </row>
-    <row r="55" spans="1:32" ht="96.75" customHeight="1">
+    <row r="55" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="74">
         <v>48</v>
       </c>
@@ -10487,7 +10842,7 @@
       </c>
       <c r="AF55" s="60"/>
     </row>
-    <row r="56" spans="1:32" ht="96.75" customHeight="1">
+    <row r="56" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="74">
         <v>49</v>
       </c>
@@ -10589,7 +10944,7 @@
       </c>
       <c r="AF56" s="60"/>
     </row>
-    <row r="57" spans="1:32" ht="96.75" customHeight="1">
+    <row r="57" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="74">
         <v>50</v>
       </c>
@@ -10691,7 +11046,7 @@
       </c>
       <c r="AF57" s="60"/>
     </row>
-    <row r="58" spans="1:32" ht="96.75" customHeight="1">
+    <row r="58" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="74">
         <v>51</v>
       </c>
@@ -10793,7 +11148,7 @@
       </c>
       <c r="AF58" s="60"/>
     </row>
-    <row r="59" spans="1:32" ht="96.75" customHeight="1">
+    <row r="59" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74">
         <v>52</v>
       </c>
@@ -10895,7 +11250,7 @@
       </c>
       <c r="AF59" s="60"/>
     </row>
-    <row r="60" spans="1:32" ht="96.75" customHeight="1">
+    <row r="60" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74">
         <v>53</v>
       </c>
@@ -10997,7 +11352,7 @@
       </c>
       <c r="AF60" s="61"/>
     </row>
-    <row r="61" spans="1:32" ht="96.75" customHeight="1">
+    <row r="61" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="74">
         <v>54</v>
       </c>
@@ -11099,7 +11454,7 @@
       </c>
       <c r="AF61" s="60"/>
     </row>
-    <row r="62" spans="1:32" ht="96.75" customHeight="1">
+    <row r="62" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="74">
         <v>55</v>
       </c>
@@ -11203,7 +11558,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="96.75" customHeight="1">
+    <row r="63" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="74">
         <v>56</v>
       </c>
@@ -11305,7 +11660,7 @@
       </c>
       <c r="AF63" s="60"/>
     </row>
-    <row r="64" spans="1:32" ht="96.75" customHeight="1">
+    <row r="64" spans="1:32" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="74">
         <v>57</v>
       </c>
@@ -11407,7 +11762,7 @@
       </c>
       <c r="AF64" s="60"/>
     </row>
-    <row r="66" spans="2:32" ht="18" customHeight="1">
+    <row r="66" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="54"/>
@@ -11441,6 +11796,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="D4:D7"/>
@@ -11452,70 +11812,65 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AD8:AD64">
-    <cfRule type="cellIs" dxfId="92" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H64">
-    <cfRule type="cellIs" dxfId="91" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J64">
-    <cfRule type="cellIs" dxfId="90" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K64">
-    <cfRule type="cellIs" dxfId="89" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M64">
-    <cfRule type="cellIs" dxfId="88" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N64">
-    <cfRule type="cellIs" dxfId="87" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P64">
-    <cfRule type="cellIs" dxfId="86" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q64">
-    <cfRule type="cellIs" dxfId="85" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S64">
-    <cfRule type="cellIs" dxfId="84" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V64">
-    <cfRule type="cellIs" dxfId="83" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y64">
-    <cfRule type="cellIs" dxfId="82" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB64">
-    <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11529,14 +11884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView topLeftCell="E44" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Z9" sqref="Z9:AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.109375" customWidth="1"/>
@@ -11552,171 +11907,171 @@
     <col min="32" max="32" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="46" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:32" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
     </row>
-    <row r="2" spans="1:32" s="46" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A2" s="167" t="s">
+    <row r="2" spans="1:32" s="46" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
     </row>
-    <row r="3" spans="1:32" s="46" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:32" s="46" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
     </row>
-    <row r="4" spans="1:32" ht="162.75" customHeight="1">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="155" t="s">
         <v>526</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155" t="s">
         <v>539</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>528</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="164" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="162" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="159" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="155" t="s">
         <v>529</v>
       </c>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="164" t="s">
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="162" t="s">
         <v>530</v>
       </c>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="159" t="s">
+      <c r="X4" s="163"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="155" t="s">
         <v>531</v>
       </c>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
       <c r="AC4" s="118" t="s">
         <v>532</v>
       </c>
@@ -11730,13 +12085,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="47.25" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+    <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="24"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
@@ -11806,13 +12161,13 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="47.25" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+    <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
@@ -11896,13 +12251,13 @@
       <c r="AE6" s="52"/>
       <c r="AF6" s="115"/>
     </row>
-    <row r="7" spans="1:32" ht="47.25" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+    <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="50" t="s">
         <v>3</v>
       </c>
@@ -11962,7 +12317,7 @@
       <c r="AE7" s="44"/>
       <c r="AF7" s="116"/>
     </row>
-    <row r="8" spans="1:32" ht="84" customHeight="1">
+    <row r="8" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="69">
         <v>1</v>
       </c>
@@ -12064,7 +12419,7 @@
       </c>
       <c r="AF8" s="64"/>
     </row>
-    <row r="9" spans="1:32" ht="84" customHeight="1">
+    <row r="9" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69">
         <v>2</v>
       </c>
@@ -12166,7 +12521,7 @@
       </c>
       <c r="AF9" s="64"/>
     </row>
-    <row r="10" spans="1:32" ht="84" customHeight="1">
+    <row r="10" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69">
         <v>3</v>
       </c>
@@ -12268,7 +12623,7 @@
       </c>
       <c r="AF10" s="64"/>
     </row>
-    <row r="11" spans="1:32" ht="84" customHeight="1">
+    <row r="11" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69">
         <v>4</v>
       </c>
@@ -12370,7 +12725,7 @@
       </c>
       <c r="AF11" s="64"/>
     </row>
-    <row r="12" spans="1:32" ht="84" customHeight="1">
+    <row r="12" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69">
         <v>5</v>
       </c>
@@ -12472,7 +12827,7 @@
       </c>
       <c r="AF12" s="64"/>
     </row>
-    <row r="13" spans="1:32" ht="84" customHeight="1">
+    <row r="13" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69">
         <v>6</v>
       </c>
@@ -12574,7 +12929,7 @@
       </c>
       <c r="AF13" s="64"/>
     </row>
-    <row r="14" spans="1:32" ht="84" customHeight="1">
+    <row r="14" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="69">
         <v>7</v>
       </c>
@@ -12676,7 +13031,7 @@
       </c>
       <c r="AF14" s="64"/>
     </row>
-    <row r="15" spans="1:32" ht="84" customHeight="1">
+    <row r="15" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69">
         <v>8</v>
       </c>
@@ -12778,7 +13133,7 @@
       </c>
       <c r="AF15" s="64"/>
     </row>
-    <row r="16" spans="1:32" ht="84" customHeight="1">
+    <row r="16" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69">
         <v>9</v>
       </c>
@@ -12880,7 +13235,7 @@
       </c>
       <c r="AF16" s="64"/>
     </row>
-    <row r="17" spans="1:32" ht="84" customHeight="1">
+    <row r="17" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="69">
         <v>10</v>
       </c>
@@ -12982,7 +13337,7 @@
       </c>
       <c r="AF17" s="64"/>
     </row>
-    <row r="18" spans="1:32" ht="84" customHeight="1">
+    <row r="18" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69">
         <v>11</v>
       </c>
@@ -13084,7 +13439,7 @@
       </c>
       <c r="AF18" s="64"/>
     </row>
-    <row r="19" spans="1:32" ht="84" customHeight="1">
+    <row r="19" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>12</v>
       </c>
@@ -13186,7 +13541,7 @@
       </c>
       <c r="AF19" s="64"/>
     </row>
-    <row r="20" spans="1:32" ht="84" customHeight="1">
+    <row r="20" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69">
         <v>13</v>
       </c>
@@ -13288,7 +13643,7 @@
       </c>
       <c r="AF20" s="64"/>
     </row>
-    <row r="21" spans="1:32" ht="84" customHeight="1">
+    <row r="21" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>14</v>
       </c>
@@ -13390,7 +13745,7 @@
       </c>
       <c r="AF21" s="64"/>
     </row>
-    <row r="22" spans="1:32" ht="84" customHeight="1">
+    <row r="22" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69">
         <v>15</v>
       </c>
@@ -13492,7 +13847,7 @@
       </c>
       <c r="AF22" s="64"/>
     </row>
-    <row r="23" spans="1:32" ht="84" customHeight="1">
+    <row r="23" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>16</v>
       </c>
@@ -13594,7 +13949,7 @@
       </c>
       <c r="AF23" s="64"/>
     </row>
-    <row r="24" spans="1:32" ht="84" customHeight="1">
+    <row r="24" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69">
         <v>17</v>
       </c>
@@ -13696,7 +14051,7 @@
       </c>
       <c r="AF24" s="64"/>
     </row>
-    <row r="25" spans="1:32" ht="84" customHeight="1">
+    <row r="25" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>18</v>
       </c>
@@ -13798,7 +14153,7 @@
       </c>
       <c r="AF25" s="64"/>
     </row>
-    <row r="26" spans="1:32" ht="84" customHeight="1">
+    <row r="26" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69">
         <v>19</v>
       </c>
@@ -13900,7 +14255,7 @@
       </c>
       <c r="AF26" s="64"/>
     </row>
-    <row r="27" spans="1:32" ht="84" customHeight="1">
+    <row r="27" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="69">
         <v>20</v>
       </c>
@@ -14002,7 +14357,7 @@
       </c>
       <c r="AF27" s="64"/>
     </row>
-    <row r="28" spans="1:32" ht="84" customHeight="1">
+    <row r="28" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69">
         <v>21</v>
       </c>
@@ -14104,7 +14459,7 @@
       </c>
       <c r="AF28" s="64"/>
     </row>
-    <row r="29" spans="1:32" ht="84" customHeight="1">
+    <row r="29" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="69">
         <v>22</v>
       </c>
@@ -14206,7 +14561,7 @@
       </c>
       <c r="AF29" s="64"/>
     </row>
-    <row r="30" spans="1:32" ht="84" customHeight="1">
+    <row r="30" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="69">
         <v>23</v>
       </c>
@@ -14308,7 +14663,7 @@
       </c>
       <c r="AF30" s="64"/>
     </row>
-    <row r="31" spans="1:32" ht="84" customHeight="1">
+    <row r="31" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="69">
         <v>24</v>
       </c>
@@ -14410,7 +14765,7 @@
       </c>
       <c r="AF31" s="64"/>
     </row>
-    <row r="32" spans="1:32" ht="84" customHeight="1">
+    <row r="32" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="69">
         <v>25</v>
       </c>
@@ -14512,7 +14867,7 @@
       </c>
       <c r="AF32" s="64"/>
     </row>
-    <row r="33" spans="1:32" ht="84" customHeight="1">
+    <row r="33" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69">
         <v>26</v>
       </c>
@@ -14614,7 +14969,7 @@
       </c>
       <c r="AF33" s="64"/>
     </row>
-    <row r="34" spans="1:32" ht="84" customHeight="1">
+    <row r="34" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="69">
         <v>27</v>
       </c>
@@ -14716,7 +15071,7 @@
       </c>
       <c r="AF34" s="64"/>
     </row>
-    <row r="35" spans="1:32" ht="84" customHeight="1">
+    <row r="35" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="69">
         <v>28</v>
       </c>
@@ -14818,7 +15173,7 @@
       </c>
       <c r="AF35" s="64"/>
     </row>
-    <row r="36" spans="1:32" ht="84" customHeight="1">
+    <row r="36" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="69">
         <v>29</v>
       </c>
@@ -14920,7 +15275,7 @@
       </c>
       <c r="AF36" s="64"/>
     </row>
-    <row r="37" spans="1:32" ht="84" customHeight="1">
+    <row r="37" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="69">
         <v>30</v>
       </c>
@@ -15022,7 +15377,7 @@
       </c>
       <c r="AF37" s="64"/>
     </row>
-    <row r="38" spans="1:32" ht="84" customHeight="1">
+    <row r="38" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="69">
         <v>31</v>
       </c>
@@ -15124,7 +15479,7 @@
       </c>
       <c r="AF38" s="64"/>
     </row>
-    <row r="39" spans="1:32" ht="84" customHeight="1">
+    <row r="39" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69">
         <v>32</v>
       </c>
@@ -15226,7 +15581,7 @@
       </c>
       <c r="AF39" s="64"/>
     </row>
-    <row r="40" spans="1:32" ht="84" customHeight="1">
+    <row r="40" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="69">
         <v>33</v>
       </c>
@@ -15328,7 +15683,7 @@
       </c>
       <c r="AF40" s="64"/>
     </row>
-    <row r="41" spans="1:32" ht="84" customHeight="1">
+    <row r="41" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="69">
         <v>34</v>
       </c>
@@ -15430,7 +15785,7 @@
       </c>
       <c r="AF41" s="64"/>
     </row>
-    <row r="42" spans="1:32" ht="84" customHeight="1">
+    <row r="42" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="69">
         <v>35</v>
       </c>
@@ -15532,7 +15887,7 @@
       </c>
       <c r="AF42" s="64"/>
     </row>
-    <row r="43" spans="1:32" ht="84" customHeight="1">
+    <row r="43" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="69">
         <v>36</v>
       </c>
@@ -15634,7 +15989,7 @@
       </c>
       <c r="AF43" s="64"/>
     </row>
-    <row r="44" spans="1:32" ht="84" customHeight="1">
+    <row r="44" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="69">
         <v>37</v>
       </c>
@@ -15736,7 +16091,7 @@
       </c>
       <c r="AF44" s="64"/>
     </row>
-    <row r="45" spans="1:32" ht="84" customHeight="1">
+    <row r="45" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="69">
         <v>38</v>
       </c>
@@ -15838,7 +16193,7 @@
       </c>
       <c r="AF45" s="64"/>
     </row>
-    <row r="46" spans="1:32" ht="84" customHeight="1">
+    <row r="46" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="69">
         <v>39</v>
       </c>
@@ -15940,7 +16295,7 @@
       </c>
       <c r="AF46" s="64"/>
     </row>
-    <row r="47" spans="1:32" ht="84" customHeight="1">
+    <row r="47" spans="1:32" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="69">
         <v>40</v>
       </c>
@@ -16042,15 +16397,21 @@
       </c>
       <c r="AF47" s="64"/>
     </row>
-    <row r="49" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B49" s="162"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="163"/>
-      <c r="F49" s="163"/>
+    <row r="49" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="166"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
@@ -16062,103 +16423,97 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="T4:V4"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="80" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H47">
-    <cfRule type="cellIs" dxfId="79" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J47">
-    <cfRule type="cellIs" dxfId="78" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K47">
-    <cfRule type="cellIs" dxfId="77" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M47">
-    <cfRule type="cellIs" dxfId="76" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N47">
-    <cfRule type="cellIs" dxfId="75" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P47">
-    <cfRule type="cellIs" dxfId="74" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S47">
-    <cfRule type="cellIs" dxfId="73" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q47">
-    <cfRule type="cellIs" dxfId="71" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V47">
-    <cfRule type="cellIs" dxfId="70" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y47">
-    <cfRule type="cellIs" dxfId="69" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB47">
-    <cfRule type="cellIs" dxfId="68" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="67" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="66" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="64" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="63" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16172,14 +16527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" style="15" customWidth="1"/>
@@ -16203,171 +16558,171 @@
     <col min="34" max="16384" width="6.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="57" customHeight="1">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
     </row>
-    <row r="2" spans="1:32" ht="57" customHeight="1">
-      <c r="A2" s="167" t="s">
+    <row r="2" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
     </row>
-    <row r="3" spans="1:32" ht="57" customHeight="1">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>521</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
     </row>
-    <row r="4" spans="1:32" ht="145.5" customHeight="1">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:32" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="155" t="s">
         <v>533</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155" t="s">
         <v>538</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>534</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159" t="s">
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155" t="s">
         <v>536</v>
       </c>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155" t="s">
         <v>564</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159" t="s">
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155" t="s">
         <v>535</v>
       </c>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
       <c r="AC4" s="118" t="s">
         <v>30</v>
       </c>
@@ -16381,13 +16736,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="35.25" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+    <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="49"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -16457,13 +16812,13 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="33" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+    <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="45" t="s">
         <v>2</v>
       </c>
@@ -16547,13 +16902,13 @@
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
     </row>
-    <row r="7" spans="1:32" ht="32.25" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+    <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="20" t="s">
         <v>3</v>
       </c>
@@ -16613,7 +16968,7 @@
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
     </row>
-    <row r="8" spans="1:32" ht="100.5" customHeight="1">
+    <row r="8" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>1</v>
       </c>
@@ -16715,7 +17070,7 @@
       </c>
       <c r="AF8" s="59"/>
     </row>
-    <row r="9" spans="1:32" ht="100.5" customHeight="1">
+    <row r="9" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>2</v>
       </c>
@@ -16817,7 +17172,7 @@
       </c>
       <c r="AF9" s="59"/>
     </row>
-    <row r="10" spans="1:32" ht="100.5" customHeight="1">
+    <row r="10" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>3</v>
       </c>
@@ -16921,7 +17276,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="100.5" customHeight="1">
+    <row r="11" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>4</v>
       </c>
@@ -17023,7 +17378,7 @@
       </c>
       <c r="AF11" s="59"/>
     </row>
-    <row r="12" spans="1:32" ht="100.5" customHeight="1">
+    <row r="12" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>5</v>
       </c>
@@ -17127,7 +17482,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="100.5" customHeight="1">
+    <row r="13" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>6</v>
       </c>
@@ -17229,7 +17584,7 @@
       </c>
       <c r="AF13" s="59"/>
     </row>
-    <row r="14" spans="1:32" ht="100.5" customHeight="1">
+    <row r="14" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>7</v>
       </c>
@@ -17331,7 +17686,7 @@
       </c>
       <c r="AF14" s="59"/>
     </row>
-    <row r="15" spans="1:32" ht="100.5" customHeight="1">
+    <row r="15" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>8</v>
       </c>
@@ -17433,7 +17788,7 @@
       </c>
       <c r="AF15" s="59"/>
     </row>
-    <row r="16" spans="1:32" ht="100.5" customHeight="1">
+    <row r="16" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>9</v>
       </c>
@@ -17535,7 +17890,7 @@
       </c>
       <c r="AF16" s="59"/>
     </row>
-    <row r="17" spans="1:32" ht="100.5" customHeight="1">
+    <row r="17" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>10</v>
       </c>
@@ -17637,7 +17992,7 @@
       </c>
       <c r="AF17" s="59"/>
     </row>
-    <row r="18" spans="1:32" ht="100.5" customHeight="1">
+    <row r="18" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>11</v>
       </c>
@@ -17739,7 +18094,7 @@
       </c>
       <c r="AF18" s="59"/>
     </row>
-    <row r="19" spans="1:32" ht="100.5" customHeight="1">
+    <row r="19" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>12</v>
       </c>
@@ -17841,7 +18196,7 @@
       </c>
       <c r="AF19" s="59"/>
     </row>
-    <row r="20" spans="1:32" ht="100.5" customHeight="1">
+    <row r="20" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <v>13</v>
       </c>
@@ -17943,7 +18298,7 @@
       </c>
       <c r="AF20" s="59"/>
     </row>
-    <row r="21" spans="1:32" ht="100.5" customHeight="1">
+    <row r="21" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>14</v>
       </c>
@@ -18045,7 +18400,7 @@
       </c>
       <c r="AF21" s="59"/>
     </row>
-    <row r="22" spans="1:32" ht="100.5" customHeight="1">
+    <row r="22" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>15</v>
       </c>
@@ -18147,7 +18502,7 @@
       </c>
       <c r="AF22" s="59"/>
     </row>
-    <row r="23" spans="1:32" ht="100.5" customHeight="1">
+    <row r="23" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71">
         <v>16</v>
       </c>
@@ -18249,7 +18604,7 @@
       </c>
       <c r="AF23" s="59"/>
     </row>
-    <row r="24" spans="1:32" ht="100.5" customHeight="1">
+    <row r="24" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71">
         <v>17</v>
       </c>
@@ -18353,7 +18708,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="100.5" customHeight="1">
+    <row r="25" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
         <v>18</v>
       </c>
@@ -18455,7 +18810,7 @@
       </c>
       <c r="AF25" s="59"/>
     </row>
-    <row r="26" spans="1:32" ht="100.5" customHeight="1">
+    <row r="26" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
         <v>19</v>
       </c>
@@ -18559,7 +18914,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="100.5" customHeight="1">
+    <row r="27" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71">
         <v>20</v>
       </c>
@@ -18661,7 +19016,7 @@
       </c>
       <c r="AF27" s="59"/>
     </row>
-    <row r="28" spans="1:32" ht="100.5" customHeight="1">
+    <row r="28" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
         <v>21</v>
       </c>
@@ -18763,7 +19118,7 @@
       </c>
       <c r="AF28" s="59"/>
     </row>
-    <row r="29" spans="1:32" ht="100.5" customHeight="1">
+    <row r="29" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
         <v>22</v>
       </c>
@@ -18865,7 +19220,7 @@
       </c>
       <c r="AF29" s="59"/>
     </row>
-    <row r="30" spans="1:32" ht="100.5" customHeight="1">
+    <row r="30" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="71">
         <v>23</v>
       </c>
@@ -18967,7 +19322,7 @@
       </c>
       <c r="AF30" s="59"/>
     </row>
-    <row r="31" spans="1:32" ht="100.5" customHeight="1">
+    <row r="31" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71">
         <v>24</v>
       </c>
@@ -19071,7 +19426,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="100.5" customHeight="1">
+    <row r="32" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="71">
         <v>25</v>
       </c>
@@ -19173,7 +19528,7 @@
       </c>
       <c r="AF32" s="59"/>
     </row>
-    <row r="33" spans="1:32" ht="100.5" customHeight="1">
+    <row r="33" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71">
         <v>26</v>
       </c>
@@ -19275,7 +19630,7 @@
       </c>
       <c r="AF33" s="59"/>
     </row>
-    <row r="34" spans="1:32" ht="100.5" customHeight="1">
+    <row r="34" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71">
         <v>27</v>
       </c>
@@ -19377,7 +19732,7 @@
       </c>
       <c r="AF34" s="59"/>
     </row>
-    <row r="35" spans="1:32" ht="100.5" customHeight="1">
+    <row r="35" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="71">
         <v>28</v>
       </c>
@@ -19479,7 +19834,7 @@
       </c>
       <c r="AF35" s="59"/>
     </row>
-    <row r="36" spans="1:32" ht="100.5" customHeight="1">
+    <row r="36" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71">
         <v>29</v>
       </c>
@@ -19581,7 +19936,7 @@
       </c>
       <c r="AF36" s="59"/>
     </row>
-    <row r="37" spans="1:32" ht="100.5" customHeight="1">
+    <row r="37" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="71">
         <v>30</v>
       </c>
@@ -19683,7 +20038,7 @@
       </c>
       <c r="AF37" s="59"/>
     </row>
-    <row r="38" spans="1:32" ht="100.5" customHeight="1">
+    <row r="38" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>31</v>
       </c>
@@ -19785,7 +20140,7 @@
       </c>
       <c r="AF38" s="59"/>
     </row>
-    <row r="39" spans="1:32" ht="100.5" customHeight="1">
+    <row r="39" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="71">
         <v>32</v>
       </c>
@@ -19889,7 +20244,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="100.5" customHeight="1">
+    <row r="40" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="71">
         <v>33</v>
       </c>
@@ -19991,7 +20346,7 @@
       </c>
       <c r="AF40" s="59"/>
     </row>
-    <row r="41" spans="1:32" ht="100.5" customHeight="1">
+    <row r="41" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="71">
         <v>34</v>
       </c>
@@ -20093,7 +20448,7 @@
       </c>
       <c r="AF41" s="59"/>
     </row>
-    <row r="42" spans="1:32" ht="100.5" customHeight="1">
+    <row r="42" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="71">
         <v>35</v>
       </c>
@@ -20195,7 +20550,7 @@
       </c>
       <c r="AF42" s="59"/>
     </row>
-    <row r="43" spans="1:32" ht="100.5" customHeight="1">
+    <row r="43" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="71">
         <v>36</v>
       </c>
@@ -20297,7 +20652,7 @@
       </c>
       <c r="AF43" s="59"/>
     </row>
-    <row r="44" spans="1:32" ht="100.5" customHeight="1">
+    <row r="44" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="71">
         <v>37</v>
       </c>
@@ -20399,7 +20754,7 @@
       </c>
       <c r="AF44" s="59"/>
     </row>
-    <row r="45" spans="1:32" ht="100.5" customHeight="1">
+    <row r="45" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="71">
         <v>38</v>
       </c>
@@ -20501,7 +20856,7 @@
       </c>
       <c r="AF45" s="59"/>
     </row>
-    <row r="46" spans="1:32" ht="100.5" customHeight="1">
+    <row r="46" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="71">
         <v>39</v>
       </c>
@@ -20605,7 +20960,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="100.5" customHeight="1">
+    <row r="47" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="71">
         <v>40</v>
       </c>
@@ -20707,7 +21062,7 @@
       </c>
       <c r="AF47" s="59"/>
     </row>
-    <row r="48" spans="1:32" ht="100.5" customHeight="1">
+    <row r="48" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="71">
         <v>41</v>
       </c>
@@ -20811,7 +21166,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="100.5" customHeight="1">
+    <row r="49" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="71">
         <v>42</v>
       </c>
@@ -20913,7 +21268,7 @@
       </c>
       <c r="AF49" s="59"/>
     </row>
-    <row r="50" spans="1:32" ht="100.5" customHeight="1">
+    <row r="50" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="71">
         <v>43</v>
       </c>
@@ -21015,7 +21370,7 @@
       </c>
       <c r="AF50" s="59"/>
     </row>
-    <row r="51" spans="1:32" ht="100.5" customHeight="1">
+    <row r="51" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="71">
         <v>44</v>
       </c>
@@ -21117,7 +21472,7 @@
       </c>
       <c r="AF51" s="59"/>
     </row>
-    <row r="52" spans="1:32" ht="100.5" customHeight="1">
+    <row r="52" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="71">
         <v>45</v>
       </c>
@@ -21219,7 +21574,7 @@
       </c>
       <c r="AF52" s="59"/>
     </row>
-    <row r="53" spans="1:32" ht="100.5" customHeight="1">
+    <row r="53" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="71">
         <v>46</v>
       </c>
@@ -21321,7 +21676,7 @@
       </c>
       <c r="AF53" s="59"/>
     </row>
-    <row r="54" spans="1:32" ht="100.5" customHeight="1">
+    <row r="54" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="71">
         <v>47</v>
       </c>
@@ -21423,7 +21778,7 @@
       </c>
       <c r="AF54" s="59"/>
     </row>
-    <row r="55" spans="1:32" ht="100.5" customHeight="1">
+    <row r="55" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="71">
         <v>48</v>
       </c>
@@ -21525,7 +21880,109 @@
       </c>
       <c r="AF55" s="59"/>
     </row>
-    <row r="59" spans="1:32" ht="22.5" customHeight="1">
+    <row r="56" spans="1:32" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="71">
+        <v>49</v>
+      </c>
+      <c r="B56" s="43">
+        <v>190090111002</v>
+      </c>
+      <c r="C56" s="43">
+        <v>190000100253</v>
+      </c>
+      <c r="D56" s="43">
+        <v>190602</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" s="72"/>
+      <c r="H56" s="86">
+        <v>80</v>
+      </c>
+      <c r="I56" s="86">
+        <v>69</v>
+      </c>
+      <c r="J56" s="74">
+        <f>SUM(H56:I56)</f>
+        <v>149</v>
+      </c>
+      <c r="K56" s="86">
+        <v>76</v>
+      </c>
+      <c r="L56" s="86">
+        <v>54</v>
+      </c>
+      <c r="M56" s="74">
+        <f>SUM(K56:L56)</f>
+        <v>130</v>
+      </c>
+      <c r="N56" s="86">
+        <v>92</v>
+      </c>
+      <c r="O56" s="88">
+        <v>73</v>
+      </c>
+      <c r="P56" s="74">
+        <f>SUM(N56:O56)</f>
+        <v>165</v>
+      </c>
+      <c r="Q56" s="86">
+        <v>39</v>
+      </c>
+      <c r="R56" s="86">
+        <v>17</v>
+      </c>
+      <c r="S56" s="74">
+        <f>SUM(Q56:R56)</f>
+        <v>56</v>
+      </c>
+      <c r="T56" s="86">
+        <v>16</v>
+      </c>
+      <c r="U56" s="86">
+        <v>21</v>
+      </c>
+      <c r="V56" s="74">
+        <f>SUM(T56:U56)</f>
+        <v>37</v>
+      </c>
+      <c r="W56" s="86">
+        <v>22</v>
+      </c>
+      <c r="X56" s="86">
+        <v>22</v>
+      </c>
+      <c r="Y56" s="74">
+        <f>SUM(W56:X56)</f>
+        <v>44</v>
+      </c>
+      <c r="Z56" s="88">
+        <v>52</v>
+      </c>
+      <c r="AA56" s="88">
+        <v>59</v>
+      </c>
+      <c r="AB56" s="74">
+        <f>SUM(Z56:AA56)</f>
+        <v>111</v>
+      </c>
+      <c r="AC56" s="129">
+        <v>45</v>
+      </c>
+      <c r="AD56" s="57">
+        <f>AB56+Y56+V56+P56+M56+J56</f>
+        <v>636</v>
+      </c>
+      <c r="AE56" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF56" s="59"/>
+    </row>
+    <row r="59" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -21560,58 +22017,108 @@
     <mergeCell ref="Z4:AB4"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H55">
-    <cfRule type="cellIs" dxfId="61" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J55">
-    <cfRule type="cellIs" dxfId="60" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K55">
-    <cfRule type="cellIs" dxfId="59" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M55">
-    <cfRule type="cellIs" dxfId="58" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N55">
-    <cfRule type="cellIs" dxfId="57" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P55">
-    <cfRule type="cellIs" dxfId="56" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q55">
-    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S55">
-    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V55">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y55">
-    <cfRule type="cellIs" dxfId="52" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB55">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB56 Y56">
+    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD56">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56 Z56 T56">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56 K56 N56 Q56">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V56">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P56">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.19685039370078741" top="0.74803149606299213" bottom="1.3385826771653544" header="0.31496062992125984" footer="0.47244094488188981"/>
@@ -21624,14 +22131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="28" customWidth="1"/>
     <col min="2" max="5" width="24.44140625" style="28" customWidth="1"/>
@@ -21645,7 +22152,7 @@
     <col min="36" max="16384" width="6.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="42" customHeight="1">
+    <row r="1" spans="1:39" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="168" t="s">
         <v>518</v>
       </c>
@@ -21685,7 +22192,7 @@
       <c r="AI1" s="168"/>
       <c r="AJ1" s="168"/>
     </row>
-    <row r="2" spans="1:39" ht="42" customHeight="1">
+    <row r="2" spans="1:39" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="169" t="s">
         <v>517</v>
       </c>
@@ -21724,7 +22231,7 @@
       <c r="AH2" s="169"/>
       <c r="AI2" s="169"/>
     </row>
-    <row r="3" spans="1:39" ht="42" customHeight="1">
+    <row r="3" spans="1:39" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
@@ -21767,68 +22274,68 @@
       <c r="AL3" s="112"/>
       <c r="AM3" s="112"/>
     </row>
-    <row r="4" spans="1:39" ht="129.75" customHeight="1">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:39" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="155" t="s">
         <v>526</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155" t="s">
         <v>539</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>559</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="164" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="162" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="164" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="162" t="s">
         <v>542</v>
       </c>
-      <c r="U4" s="165"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="163"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="155" t="s">
         <v>529</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="164" t="s">
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="162" t="s">
         <v>530</v>
       </c>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="159" t="s">
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="155" t="s">
         <v>531</v>
       </c>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="155"/>
       <c r="AF4" s="118" t="s">
         <v>532</v>
       </c>
@@ -21842,13 +22349,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="48.75" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+    <row r="5" spans="1:39" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="18"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
@@ -21927,13 +22434,13 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
     </row>
-    <row r="6" spans="1:39" ht="35.25" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+    <row r="6" spans="1:39" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="18" t="s">
         <v>2</v>
       </c>
@@ -22027,13 +22534,13 @@
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
     </row>
-    <row r="7" spans="1:39" ht="35.25" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+    <row r="7" spans="1:39" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
@@ -22100,7 +22607,7 @@
       <c r="AH7" s="53"/>
       <c r="AI7" s="71"/>
     </row>
-    <row r="8" spans="1:39" ht="93" customHeight="1">
+    <row r="8" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69">
         <v>1</v>
       </c>
@@ -22212,7 +22719,7 @@
       </c>
       <c r="AI8" s="59"/>
     </row>
-    <row r="9" spans="1:39" ht="93" customHeight="1">
+    <row r="9" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69">
         <v>2</v>
       </c>
@@ -22324,7 +22831,7 @@
       </c>
       <c r="AI9" s="59"/>
     </row>
-    <row r="10" spans="1:39" ht="93" customHeight="1">
+    <row r="10" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69">
         <v>3</v>
       </c>
@@ -22436,7 +22943,7 @@
       </c>
       <c r="AI10" s="59"/>
     </row>
-    <row r="11" spans="1:39" ht="93" customHeight="1">
+    <row r="11" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="69">
         <v>4</v>
       </c>
@@ -22548,7 +23055,7 @@
       </c>
       <c r="AI11" s="59"/>
     </row>
-    <row r="12" spans="1:39" ht="93" customHeight="1">
+    <row r="12" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69">
         <v>5</v>
       </c>
@@ -22660,7 +23167,7 @@
       </c>
       <c r="AI12" s="59"/>
     </row>
-    <row r="13" spans="1:39" ht="93" customHeight="1">
+    <row r="13" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69">
         <v>6</v>
       </c>
@@ -22772,7 +23279,7 @@
       </c>
       <c r="AI13" s="59"/>
     </row>
-    <row r="14" spans="1:39" ht="93" customHeight="1">
+    <row r="14" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69">
         <v>7</v>
       </c>
@@ -22884,7 +23391,7 @@
       </c>
       <c r="AI14" s="59"/>
     </row>
-    <row r="15" spans="1:39" ht="93" customHeight="1">
+    <row r="15" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69">
         <v>8</v>
       </c>
@@ -22996,7 +23503,7 @@
       </c>
       <c r="AI15" s="59"/>
     </row>
-    <row r="16" spans="1:39" ht="93" customHeight="1">
+    <row r="16" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69">
         <v>9</v>
       </c>
@@ -23108,7 +23615,7 @@
       </c>
       <c r="AI16" s="59"/>
     </row>
-    <row r="17" spans="1:35" ht="93" customHeight="1">
+    <row r="17" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69">
         <v>10</v>
       </c>
@@ -23220,7 +23727,7 @@
       </c>
       <c r="AI17" s="59"/>
     </row>
-    <row r="18" spans="1:35" ht="93" customHeight="1">
+    <row r="18" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="69">
         <v>11</v>
       </c>
@@ -23332,7 +23839,7 @@
       </c>
       <c r="AI18" s="59"/>
     </row>
-    <row r="19" spans="1:35" ht="93" customHeight="1">
+    <row r="19" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="69">
         <v>12</v>
       </c>
@@ -23444,7 +23951,7 @@
       </c>
       <c r="AI19" s="59"/>
     </row>
-    <row r="20" spans="1:35" ht="93" customHeight="1">
+    <row r="20" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69">
         <v>13</v>
       </c>
@@ -23556,7 +24063,7 @@
       </c>
       <c r="AI20" s="59"/>
     </row>
-    <row r="21" spans="1:35" ht="93" customHeight="1">
+    <row r="21" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69">
         <v>14</v>
       </c>
@@ -23668,7 +24175,7 @@
       </c>
       <c r="AI21" s="59"/>
     </row>
-    <row r="22" spans="1:35" ht="93" customHeight="1">
+    <row r="22" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="69">
         <v>15</v>
       </c>
@@ -23780,7 +24287,7 @@
       </c>
       <c r="AI22" s="59"/>
     </row>
-    <row r="23" spans="1:35" ht="93" customHeight="1">
+    <row r="23" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69">
         <v>16</v>
       </c>
@@ -23892,7 +24399,7 @@
       </c>
       <c r="AI23" s="59"/>
     </row>
-    <row r="24" spans="1:35" ht="93" customHeight="1">
+    <row r="24" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="69">
         <v>17</v>
       </c>
@@ -24004,7 +24511,7 @@
       </c>
       <c r="AI24" s="59"/>
     </row>
-    <row r="25" spans="1:35" ht="93" customHeight="1">
+    <row r="25" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="69">
         <v>18</v>
       </c>
@@ -24116,7 +24623,7 @@
       </c>
       <c r="AI25" s="59"/>
     </row>
-    <row r="26" spans="1:35" ht="93" customHeight="1">
+    <row r="26" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="69">
         <v>19</v>
       </c>
@@ -24228,7 +24735,7 @@
       </c>
       <c r="AI26" s="59"/>
     </row>
-    <row r="27" spans="1:35" ht="93" customHeight="1">
+    <row r="27" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="69">
         <v>20</v>
       </c>
@@ -24340,7 +24847,7 @@
       </c>
       <c r="AI27" s="59"/>
     </row>
-    <row r="28" spans="1:35" ht="93" customHeight="1">
+    <row r="28" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69">
         <v>21</v>
       </c>
@@ -24452,7 +24959,7 @@
       </c>
       <c r="AI28" s="59"/>
     </row>
-    <row r="29" spans="1:35" ht="93" customHeight="1">
+    <row r="29" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69">
         <v>22</v>
       </c>
@@ -24564,7 +25071,7 @@
       </c>
       <c r="AI29" s="59"/>
     </row>
-    <row r="30" spans="1:35" ht="93" customHeight="1">
+    <row r="30" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69">
         <v>23</v>
       </c>
@@ -24676,7 +25183,7 @@
       </c>
       <c r="AI30" s="59"/>
     </row>
-    <row r="31" spans="1:35" ht="93" customHeight="1">
+    <row r="31" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="69">
         <v>24</v>
       </c>
@@ -24790,7 +25297,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="93" customHeight="1">
+    <row r="32" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69">
         <v>25</v>
       </c>
@@ -24902,7 +25409,7 @@
       </c>
       <c r="AI32" s="59"/>
     </row>
-    <row r="33" spans="1:35" ht="93" customHeight="1">
+    <row r="33" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69">
         <v>26</v>
       </c>
@@ -25014,7 +25521,7 @@
       </c>
       <c r="AI33" s="59"/>
     </row>
-    <row r="34" spans="1:35" ht="93" customHeight="1">
+    <row r="34" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69">
         <v>27</v>
       </c>
@@ -25126,7 +25633,7 @@
       </c>
       <c r="AI34" s="59"/>
     </row>
-    <row r="35" spans="1:35" ht="93" customHeight="1">
+    <row r="35" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="69">
         <v>28</v>
       </c>
@@ -25238,7 +25745,7 @@
       </c>
       <c r="AI35" s="59"/>
     </row>
-    <row r="36" spans="1:35" ht="93" customHeight="1">
+    <row r="36" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="69">
         <v>29</v>
       </c>
@@ -25350,7 +25857,7 @@
       </c>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="1:35" ht="93" customHeight="1">
+    <row r="37" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="69">
         <v>30</v>
       </c>
@@ -25462,7 +25969,7 @@
       </c>
       <c r="AI37" s="59"/>
     </row>
-    <row r="38" spans="1:35" ht="93" customHeight="1">
+    <row r="38" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69">
         <v>31</v>
       </c>
@@ -25574,7 +26081,7 @@
       </c>
       <c r="AI38" s="59"/>
     </row>
-    <row r="39" spans="1:35" ht="93" customHeight="1">
+    <row r="39" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69">
         <v>32</v>
       </c>
@@ -25686,7 +26193,7 @@
       </c>
       <c r="AI39" s="59"/>
     </row>
-    <row r="40" spans="1:35" ht="93" customHeight="1">
+    <row r="40" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69">
         <v>33</v>
       </c>
@@ -25798,7 +26305,7 @@
       </c>
       <c r="AI40" s="59"/>
     </row>
-    <row r="41" spans="1:35" ht="93" customHeight="1">
+    <row r="41" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69">
         <v>34</v>
       </c>
@@ -25910,7 +26417,7 @@
       </c>
       <c r="AI41" s="59"/>
     </row>
-    <row r="42" spans="1:35" ht="93" customHeight="1">
+    <row r="42" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69">
         <v>35</v>
       </c>
@@ -26022,7 +26529,7 @@
       </c>
       <c r="AI42" s="59"/>
     </row>
-    <row r="43" spans="1:35" ht="93" customHeight="1">
+    <row r="43" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="69">
         <v>36</v>
       </c>
@@ -26134,7 +26641,7 @@
       </c>
       <c r="AI43" s="59"/>
     </row>
-    <row r="44" spans="1:35" ht="93" customHeight="1">
+    <row r="44" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69">
         <v>37</v>
       </c>
@@ -26246,7 +26753,7 @@
       </c>
       <c r="AI44" s="59"/>
     </row>
-    <row r="45" spans="1:35" ht="93" customHeight="1">
+    <row r="45" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69">
         <v>38</v>
       </c>
@@ -26358,7 +26865,7 @@
       </c>
       <c r="AI45" s="59"/>
     </row>
-    <row r="46" spans="1:35" ht="93" customHeight="1">
+    <row r="46" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69">
         <v>39</v>
       </c>
@@ -26470,7 +26977,7 @@
       </c>
       <c r="AI46" s="59"/>
     </row>
-    <row r="47" spans="1:35" ht="93" customHeight="1">
+    <row r="47" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69">
         <v>40</v>
       </c>
@@ -26582,7 +27089,7 @@
       </c>
       <c r="AI47" s="59"/>
     </row>
-    <row r="48" spans="1:35" ht="93" customHeight="1">
+    <row r="48" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69">
         <v>41</v>
       </c>
@@ -26694,7 +27201,7 @@
       </c>
       <c r="AI48" s="59"/>
     </row>
-    <row r="49" spans="1:35" ht="93" customHeight="1">
+    <row r="49" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69">
         <v>42</v>
       </c>
@@ -26808,7 +27315,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="93" customHeight="1">
+    <row r="50" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="69">
         <v>43</v>
       </c>
@@ -26920,7 +27427,7 @@
       </c>
       <c r="AI50" s="59"/>
     </row>
-    <row r="51" spans="1:35" ht="93" customHeight="1">
+    <row r="51" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69">
         <v>44</v>
       </c>
@@ -27032,7 +27539,7 @@
       </c>
       <c r="AI51" s="59"/>
     </row>
-    <row r="52" spans="1:35" ht="93" customHeight="1">
+    <row r="52" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69">
         <v>45</v>
       </c>
@@ -27144,7 +27651,7 @@
       </c>
       <c r="AI52" s="59"/>
     </row>
-    <row r="53" spans="1:35" ht="93" customHeight="1">
+    <row r="53" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="69">
         <v>46</v>
       </c>
@@ -27256,7 +27763,7 @@
       </c>
       <c r="AI53" s="59"/>
     </row>
-    <row r="54" spans="1:35" ht="93" customHeight="1">
+    <row r="54" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="69">
         <v>47</v>
       </c>
@@ -27368,7 +27875,7 @@
       </c>
       <c r="AI54" s="59"/>
     </row>
-    <row r="55" spans="1:35" ht="93" customHeight="1">
+    <row r="55" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="69">
         <v>48</v>
       </c>
@@ -27480,7 +27987,7 @@
       </c>
       <c r="AI55" s="59"/>
     </row>
-    <row r="56" spans="1:35" ht="93" customHeight="1">
+    <row r="56" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="69">
         <v>49</v>
       </c>
@@ -27592,7 +28099,7 @@
       </c>
       <c r="AI56" s="59"/>
     </row>
-    <row r="57" spans="1:35" ht="93" customHeight="1">
+    <row r="57" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="69">
         <v>50</v>
       </c>
@@ -27704,7 +28211,7 @@
       </c>
       <c r="AI57" s="59"/>
     </row>
-    <row r="58" spans="1:35" ht="93" customHeight="1">
+    <row r="58" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="69">
         <v>51</v>
       </c>
@@ -27816,7 +28323,7 @@
       </c>
       <c r="AI58" s="59"/>
     </row>
-    <row r="59" spans="1:35" ht="93" customHeight="1">
+    <row r="59" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="69">
         <v>52</v>
       </c>
@@ -27928,7 +28435,7 @@
       </c>
       <c r="AI59" s="59"/>
     </row>
-    <row r="60" spans="1:35" ht="93" customHeight="1">
+    <row r="60" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="69">
         <v>53</v>
       </c>
@@ -28040,7 +28547,7 @@
       </c>
       <c r="AI60" s="59"/>
     </row>
-    <row r="61" spans="1:35" ht="93" customHeight="1">
+    <row r="61" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="69">
         <v>54</v>
       </c>
@@ -28152,7 +28659,7 @@
       </c>
       <c r="AI61" s="59"/>
     </row>
-    <row r="62" spans="1:35" ht="93" customHeight="1">
+    <row r="62" spans="1:35" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="69">
         <v>55</v>
       </c>
@@ -28264,7 +28771,7 @@
       </c>
       <c r="AI62" s="59"/>
     </row>
-    <row r="64" spans="1:35" ht="37.5" customHeight="1">
+    <row r="64" spans="1:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="168"/>
       <c r="C64" s="168"/>
       <c r="D64" s="168"/>
@@ -28273,6 +28780,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B64:F64"/>
@@ -28289,95 +28797,94 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J62 M8:M62">
-    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N62 S8:S62 V8:V62">
-    <cfRule type="cellIs" dxfId="49" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q62">
-    <cfRule type="cellIs" dxfId="48" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W37 W39:W62 Z8:Z62">
-    <cfRule type="cellIs" dxfId="47" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y62 AB8:AB62">
-    <cfRule type="cellIs" dxfId="46" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC62">
-    <cfRule type="cellIs" dxfId="45" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE62">
-    <cfRule type="cellIs" dxfId="44" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H62">
-    <cfRule type="cellIs" dxfId="43" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K62">
-    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P62">
-    <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="40" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="39" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T62">
-    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="37" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28390,7 +28897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -28401,7 +28908,7 @@
       <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
@@ -28416,154 +28923,154 @@
     <col min="29" max="29" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="63" customHeight="1">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
     </row>
-    <row r="2" spans="1:29" ht="63" customHeight="1">
-      <c r="A2" s="160" t="s">
+    <row r="2" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
     </row>
-    <row r="3" spans="1:29" ht="63" customHeight="1">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
     </row>
-    <row r="4" spans="1:29" ht="121.5" customHeight="1">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:29" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="155" t="s">
         <v>556</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155" t="s">
         <v>557</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>540</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159" t="s">
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155" t="s">
         <v>558</v>
       </c>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155" t="s">
         <v>535</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
       <c r="Z4" s="95" t="s">
         <v>541</v>
       </c>
@@ -28577,13 +29084,13 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="39.75" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+    <row r="5" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="2"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -28644,13 +29151,13 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="99"/>
     </row>
-    <row r="6" spans="1:29" ht="55.5" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+    <row r="6" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="9" t="s">
         <v>2</v>
       </c>
@@ -28723,13 +29230,13 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="67"/>
     </row>
-    <row r="7" spans="1:29" ht="55.5" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+    <row r="7" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="100" t="s">
         <v>3</v>
       </c>
@@ -28782,7 +29289,7 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="108"/>
     </row>
-    <row r="8" spans="1:29" ht="76.5" customHeight="1">
+    <row r="8" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56">
         <v>1</v>
       </c>
@@ -28874,7 +29381,7 @@
       </c>
       <c r="AC8" s="108"/>
     </row>
-    <row r="9" spans="1:29" ht="76.5" customHeight="1">
+    <row r="9" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="96">
         <v>2</v>
       </c>
@@ -28966,7 +29473,7 @@
       </c>
       <c r="AC9" s="108"/>
     </row>
-    <row r="10" spans="1:29" ht="76.5" customHeight="1">
+    <row r="10" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56">
         <v>3</v>
       </c>
@@ -29058,7 +29565,7 @@
       </c>
       <c r="AC10" s="109"/>
     </row>
-    <row r="11" spans="1:29" ht="76.5" customHeight="1">
+    <row r="11" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="96">
         <v>4</v>
       </c>
@@ -29150,7 +29657,7 @@
       </c>
       <c r="AC11" s="109"/>
     </row>
-    <row r="12" spans="1:29" ht="76.5" customHeight="1">
+    <row r="12" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="56">
         <v>5</v>
       </c>
@@ -29242,7 +29749,7 @@
       </c>
       <c r="AC12" s="109"/>
     </row>
-    <row r="13" spans="1:29" ht="76.5" customHeight="1">
+    <row r="13" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="96">
         <v>6</v>
       </c>
@@ -29334,7 +29841,7 @@
       </c>
       <c r="AC13" s="109"/>
     </row>
-    <row r="14" spans="1:29" ht="76.5" customHeight="1">
+    <row r="14" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="56">
         <v>7</v>
       </c>
@@ -29426,7 +29933,7 @@
       </c>
       <c r="AC14" s="109"/>
     </row>
-    <row r="15" spans="1:29" ht="76.5" customHeight="1">
+    <row r="15" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="96">
         <v>8</v>
       </c>
@@ -29518,7 +30025,7 @@
       </c>
       <c r="AC15" s="109"/>
     </row>
-    <row r="16" spans="1:29" ht="76.5" customHeight="1">
+    <row r="16" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56">
         <v>9</v>
       </c>
@@ -29610,7 +30117,7 @@
       </c>
       <c r="AC16" s="109"/>
     </row>
-    <row r="17" spans="1:29" ht="76.5" customHeight="1">
+    <row r="17" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="96">
         <v>10</v>
       </c>
@@ -29702,7 +30209,7 @@
       </c>
       <c r="AC17" s="109"/>
     </row>
-    <row r="18" spans="1:29" ht="76.5" customHeight="1">
+    <row r="18" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56">
         <v>11</v>
       </c>
@@ -29794,7 +30301,7 @@
       </c>
       <c r="AC18" s="109"/>
     </row>
-    <row r="19" spans="1:29" ht="76.5" customHeight="1">
+    <row r="19" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="96">
         <v>12</v>
       </c>
@@ -29888,7 +30395,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="76.5" customHeight="1">
+    <row r="20" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56">
         <v>13</v>
       </c>
@@ -29982,7 +30489,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="76.5" customHeight="1">
+    <row r="21" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="96">
         <v>14</v>
       </c>
@@ -30074,7 +30581,7 @@
       </c>
       <c r="AC21" s="109"/>
     </row>
-    <row r="22" spans="1:29" ht="76.5" customHeight="1">
+    <row r="22" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="56">
         <v>15</v>
       </c>
@@ -30166,7 +30673,7 @@
       </c>
       <c r="AC22" s="109"/>
     </row>
-    <row r="23" spans="1:29" ht="76.5" customHeight="1">
+    <row r="23" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="96">
         <v>16</v>
       </c>
@@ -30258,7 +30765,7 @@
       </c>
       <c r="AC23" s="109"/>
     </row>
-    <row r="24" spans="1:29" ht="76.5" customHeight="1">
+    <row r="24" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="56">
         <v>17</v>
       </c>
@@ -30350,7 +30857,7 @@
       </c>
       <c r="AC24" s="109"/>
     </row>
-    <row r="25" spans="1:29" ht="76.5" customHeight="1">
+    <row r="25" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="96">
         <v>18</v>
       </c>
@@ -30442,7 +30949,7 @@
       </c>
       <c r="AC25" s="109"/>
     </row>
-    <row r="26" spans="1:29" ht="76.5" customHeight="1">
+    <row r="26" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56">
         <v>19</v>
       </c>
@@ -30534,7 +31041,7 @@
       </c>
       <c r="AC26" s="109"/>
     </row>
-    <row r="27" spans="1:29" ht="76.5" customHeight="1">
+    <row r="27" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="96">
         <v>20</v>
       </c>
@@ -30626,7 +31133,7 @@
       </c>
       <c r="AC27" s="109"/>
     </row>
-    <row r="28" spans="1:29" ht="76.5" customHeight="1">
+    <row r="28" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>21</v>
       </c>
@@ -30718,7 +31225,7 @@
       </c>
       <c r="AC28" s="109"/>
     </row>
-    <row r="29" spans="1:29" ht="76.5" customHeight="1">
+    <row r="29" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="96">
         <v>22</v>
       </c>
@@ -30810,7 +31317,7 @@
       </c>
       <c r="AC29" s="109"/>
     </row>
-    <row r="30" spans="1:29" ht="76.5" customHeight="1">
+    <row r="30" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56">
         <v>23</v>
       </c>
@@ -30902,7 +31409,7 @@
       </c>
       <c r="AC30" s="109"/>
     </row>
-    <row r="31" spans="1:29" ht="76.5" customHeight="1">
+    <row r="31" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="96">
         <v>24</v>
       </c>
@@ -30994,7 +31501,7 @@
       </c>
       <c r="AC31" s="109"/>
     </row>
-    <row r="32" spans="1:29" ht="76.5" customHeight="1">
+    <row r="32" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56">
         <v>25</v>
       </c>
@@ -31086,7 +31593,7 @@
       </c>
       <c r="AC32" s="109"/>
     </row>
-    <row r="33" spans="1:29" ht="76.5" customHeight="1">
+    <row r="33" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="96">
         <v>26</v>
       </c>
@@ -31178,7 +31685,7 @@
       </c>
       <c r="AC33" s="109"/>
     </row>
-    <row r="34" spans="1:29" ht="76.5" customHeight="1">
+    <row r="34" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="56">
         <v>27</v>
       </c>
@@ -31270,7 +31777,7 @@
       </c>
       <c r="AC34" s="109"/>
     </row>
-    <row r="35" spans="1:29" ht="76.5" customHeight="1">
+    <row r="35" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="96">
         <v>28</v>
       </c>
@@ -31362,7 +31869,7 @@
       </c>
       <c r="AC35" s="109"/>
     </row>
-    <row r="36" spans="1:29" ht="76.5" customHeight="1">
+    <row r="36" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="56">
         <v>29</v>
       </c>
@@ -31454,7 +31961,7 @@
       </c>
       <c r="AC36" s="109"/>
     </row>
-    <row r="37" spans="1:29" ht="76.5" customHeight="1">
+    <row r="37" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="96">
         <v>30</v>
       </c>
@@ -31546,7 +32053,7 @@
       </c>
       <c r="AC37" s="109"/>
     </row>
-    <row r="38" spans="1:29" ht="76.5" customHeight="1">
+    <row r="38" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="56">
         <v>31</v>
       </c>
@@ -31638,7 +32145,7 @@
       </c>
       <c r="AC38" s="109"/>
     </row>
-    <row r="39" spans="1:29" ht="76.5" customHeight="1">
+    <row r="39" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="96">
         <v>32</v>
       </c>
@@ -31730,7 +32237,7 @@
       </c>
       <c r="AC39" s="109"/>
     </row>
-    <row r="40" spans="1:29" ht="76.5" customHeight="1">
+    <row r="40" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56">
         <v>33</v>
       </c>
@@ -31822,7 +32329,7 @@
       </c>
       <c r="AC40" s="109"/>
     </row>
-    <row r="41" spans="1:29" ht="76.5" customHeight="1">
+    <row r="41" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="96">
         <v>34</v>
       </c>
@@ -31914,7 +32421,7 @@
       </c>
       <c r="AC41" s="109"/>
     </row>
-    <row r="42" spans="1:29" ht="76.5" customHeight="1">
+    <row r="42" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="56">
         <v>35</v>
       </c>
@@ -32006,7 +32513,7 @@
       </c>
       <c r="AC42" s="109"/>
     </row>
-    <row r="43" spans="1:29" ht="76.5" customHeight="1">
+    <row r="43" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="96">
         <v>36</v>
       </c>
@@ -32098,7 +32605,7 @@
       </c>
       <c r="AC43" s="109"/>
     </row>
-    <row r="44" spans="1:29" ht="76.5" customHeight="1">
+    <row r="44" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="56">
         <v>37</v>
       </c>
@@ -32190,7 +32697,7 @@
       </c>
       <c r="AC44" s="109"/>
     </row>
-    <row r="45" spans="1:29" ht="76.5" customHeight="1">
+    <row r="45" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="96">
         <v>38</v>
       </c>
@@ -32282,7 +32789,7 @@
       </c>
       <c r="AC45" s="110"/>
     </row>
-    <row r="46" spans="1:29" ht="76.5" customHeight="1">
+    <row r="46" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="56">
         <v>39</v>
       </c>
@@ -32374,7 +32881,7 @@
       </c>
       <c r="AC46" s="109"/>
     </row>
-    <row r="47" spans="1:29" ht="76.5" customHeight="1">
+    <row r="47" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="96">
         <v>40</v>
       </c>
@@ -32466,7 +32973,7 @@
       </c>
       <c r="AC47" s="109"/>
     </row>
-    <row r="48" spans="1:29" ht="76.5" customHeight="1">
+    <row r="48" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="56">
         <v>41</v>
       </c>
@@ -32560,7 +33067,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="76.5" customHeight="1">
+    <row r="49" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="96">
         <v>42</v>
       </c>
@@ -32652,7 +33159,7 @@
       </c>
       <c r="AC49" s="109"/>
     </row>
-    <row r="50" spans="1:29" ht="76.5" customHeight="1">
+    <row r="50" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="56">
         <v>43</v>
       </c>
@@ -32744,7 +33251,7 @@
       </c>
       <c r="AC50" s="109"/>
     </row>
-    <row r="51" spans="1:29" ht="76.5" customHeight="1">
+    <row r="51" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="96">
         <v>44</v>
       </c>
@@ -32836,7 +33343,7 @@
       </c>
       <c r="AC51" s="109"/>
     </row>
-    <row r="52" spans="1:29" ht="76.5" customHeight="1">
+    <row r="52" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="56">
         <v>45</v>
       </c>
@@ -32949,57 +33456,57 @@
     <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="AA8:AA52">
-    <cfRule type="cellIs" dxfId="32" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H52">
-    <cfRule type="cellIs" dxfId="31" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J52">
-    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K52">
-    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M52">
-    <cfRule type="cellIs" dxfId="28" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N52">
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P52">
-    <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q52">
-    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S52">
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V52">
-    <cfRule type="cellIs" dxfId="23" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y52">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33013,14 +33520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="27.109375" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
@@ -33031,171 +33538,171 @@
     <col min="32" max="32" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
     </row>
-    <row r="2" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A2" s="167" t="s">
+    <row r="2" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
     </row>
-    <row r="3" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>523</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
     </row>
-    <row r="4" spans="1:32" ht="101.25" customHeight="1">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:32" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="155" t="s">
         <v>533</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155" t="s">
         <v>538</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>534</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159" t="s">
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155" t="s">
         <v>536</v>
       </c>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155" t="s">
         <v>565</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159" t="s">
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155" t="s">
         <v>535</v>
       </c>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
       <c r="AC4" s="118" t="s">
         <v>30</v>
       </c>
@@ -33209,13 +33716,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="38.25" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+    <row r="5" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="49"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -33285,13 +33792,13 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="38.25" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+    <row r="6" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
@@ -33375,13 +33882,13 @@
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
     </row>
-    <row r="7" spans="1:32" ht="15.6">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+    <row r="7" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="50" t="s">
         <v>3</v>
       </c>
@@ -33441,7 +33948,7 @@
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
     </row>
-    <row r="8" spans="1:32" ht="113.25" customHeight="1">
+    <row r="8" spans="1:32" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>1</v>
       </c>
@@ -33538,7 +34045,7 @@
       </c>
       <c r="AF8" s="59"/>
     </row>
-    <row r="9" spans="1:32" ht="113.25" customHeight="1">
+    <row r="9" spans="1:32" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>2</v>
       </c>
@@ -33640,7 +34147,7 @@
       </c>
       <c r="AF9" s="59"/>
     </row>
-    <row r="15" spans="1:32" ht="226.5" customHeight="1">
+    <row r="15" spans="1:32" ht="226.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="170" t="s">
         <v>567</v>
       </c>
@@ -33678,6 +34185,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A15:AF15"/>
     <mergeCell ref="A1:AF1"/>
@@ -33694,55 +34202,54 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB9 Y8:Y9">
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD9">
-    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W9 Z8:Z9 T8:T9">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9 K8:K9 N8:N9 Q8:Q9">
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V9">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P9">
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M9">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33753,14 +34260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AE38" sqref="AE38:AF38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" customWidth="1"/>
@@ -33776,7 +34283,7 @@
     <col min="32" max="32" width="62.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="63.75" customHeight="1">
+    <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="171" t="s">
         <v>19</v>
       </c>
@@ -33812,7 +34319,7 @@
       <c r="AE1" s="171"/>
       <c r="AF1" s="171"/>
     </row>
-    <row r="2" spans="1:32" ht="63.75" customHeight="1">
+    <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="171" t="s">
         <v>21</v>
       </c>
@@ -33848,7 +34355,7 @@
       <c r="AE2" s="171"/>
       <c r="AF2" s="171"/>
     </row>
-    <row r="3" spans="1:32" ht="63.75" customHeight="1">
+    <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
         <v>524</v>
       </c>
@@ -33884,63 +34391,63 @@
       <c r="AE3" s="172"/>
       <c r="AF3" s="172"/>
     </row>
-    <row r="4" spans="1:32" ht="181.5" customHeight="1">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="155" t="s">
         <v>526</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155" t="s">
         <v>539</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>559</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="164" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="162" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="159" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="164" t="s">
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="162" t="s">
         <v>530</v>
       </c>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="159" t="s">
+      <c r="X4" s="163"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="155" t="s">
         <v>531</v>
       </c>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
       <c r="AC4" s="117" t="s">
         <v>532</v>
       </c>
@@ -33954,13 +34461,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="39" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+    <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="5"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
@@ -34030,13 +34537,13 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="35"/>
     </row>
-    <row r="6" spans="1:32" ht="39" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+    <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="97" t="s">
         <v>2</v>
       </c>
@@ -34120,13 +34627,13 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="25"/>
     </row>
-    <row r="7" spans="1:32" ht="39" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+    <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="98" t="s">
         <v>3</v>
       </c>
@@ -34186,7 +34693,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="36"/>
     </row>
-    <row r="8" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="8" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>1</v>
       </c>
@@ -34293,7 +34800,7 @@
       </c>
       <c r="AF8" s="59"/>
     </row>
-    <row r="9" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="9" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56">
         <v>2</v>
       </c>
@@ -34400,7 +34907,7 @@
       </c>
       <c r="AF9" s="59"/>
     </row>
-    <row r="10" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="10" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <v>3</v>
       </c>
@@ -34507,7 +35014,7 @@
       </c>
       <c r="AF10" s="59"/>
     </row>
-    <row r="11" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="11" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
         <v>4</v>
       </c>
@@ -34614,7 +35121,7 @@
       </c>
       <c r="AF11" s="59"/>
     </row>
-    <row r="12" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="12" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
         <v>5</v>
       </c>
@@ -34721,7 +35228,7 @@
       </c>
       <c r="AF12" s="59"/>
     </row>
-    <row r="13" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="13" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
         <v>6</v>
       </c>
@@ -34828,7 +35335,7 @@
       </c>
       <c r="AF13" s="59"/>
     </row>
-    <row r="14" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="14" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
         <v>7</v>
       </c>
@@ -34935,7 +35442,7 @@
       </c>
       <c r="AF14" s="59"/>
     </row>
-    <row r="15" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="15" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56">
         <v>8</v>
       </c>
@@ -35042,7 +35549,7 @@
       </c>
       <c r="AF15" s="59"/>
     </row>
-    <row r="16" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="16" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56">
         <v>9</v>
       </c>
@@ -35149,7 +35656,7 @@
       </c>
       <c r="AF16" s="59"/>
     </row>
-    <row r="17" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="17" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56">
         <v>10</v>
       </c>
@@ -35256,7 +35763,7 @@
       </c>
       <c r="AF17" s="59"/>
     </row>
-    <row r="18" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="18" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56">
         <v>11</v>
       </c>
@@ -35363,7 +35870,7 @@
       </c>
       <c r="AF18" s="59"/>
     </row>
-    <row r="19" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="19" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>12</v>
       </c>
@@ -35470,7 +35977,7 @@
       </c>
       <c r="AF19" s="59"/>
     </row>
-    <row r="20" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="20" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56">
         <v>13</v>
       </c>
@@ -35577,7 +36084,7 @@
       </c>
       <c r="AF20" s="59"/>
     </row>
-    <row r="21" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="21" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56">
         <v>14</v>
       </c>
@@ -35684,7 +36191,7 @@
       </c>
       <c r="AF21" s="59"/>
     </row>
-    <row r="22" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="22" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56">
         <v>15</v>
       </c>
@@ -35791,7 +36298,7 @@
       </c>
       <c r="AF22" s="59"/>
     </row>
-    <row r="23" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="23" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56">
         <v>16</v>
       </c>
@@ -35898,7 +36405,7 @@
       </c>
       <c r="AF23" s="59"/>
     </row>
-    <row r="24" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="24" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56">
         <v>17</v>
       </c>
@@ -36005,7 +36512,7 @@
       </c>
       <c r="AF24" s="59"/>
     </row>
-    <row r="25" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="25" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56">
         <v>18</v>
       </c>
@@ -36112,7 +36619,7 @@
       </c>
       <c r="AF25" s="59"/>
     </row>
-    <row r="26" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="26" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56">
         <v>19</v>
       </c>
@@ -36219,7 +36726,7 @@
       </c>
       <c r="AF26" s="59"/>
     </row>
-    <row r="27" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="27" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56">
         <v>20</v>
       </c>
@@ -36326,7 +36833,7 @@
       </c>
       <c r="AF27" s="59"/>
     </row>
-    <row r="28" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="28" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56">
         <v>21</v>
       </c>
@@ -36433,7 +36940,7 @@
       </c>
       <c r="AF28" s="59"/>
     </row>
-    <row r="29" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="29" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56">
         <v>22</v>
       </c>
@@ -36540,7 +37047,7 @@
       </c>
       <c r="AF29" s="59"/>
     </row>
-    <row r="30" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="30" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56">
         <v>23</v>
       </c>
@@ -36647,7 +37154,7 @@
       </c>
       <c r="AF30" s="59"/>
     </row>
-    <row r="31" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="31" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56">
         <v>24</v>
       </c>
@@ -36754,7 +37261,7 @@
       </c>
       <c r="AF31" s="59"/>
     </row>
-    <row r="32" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="32" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56">
         <v>25</v>
       </c>
@@ -36861,7 +37368,7 @@
       </c>
       <c r="AF32" s="59"/>
     </row>
-    <row r="33" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="33" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56">
         <v>26</v>
       </c>
@@ -36968,7 +37475,7 @@
       </c>
       <c r="AF33" s="59"/>
     </row>
-    <row r="34" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="34" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56">
         <v>27</v>
       </c>
@@ -37075,7 +37582,7 @@
       </c>
       <c r="AF34" s="59"/>
     </row>
-    <row r="35" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="35" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56">
         <v>28</v>
       </c>
@@ -37182,7 +37689,7 @@
       </c>
       <c r="AF35" s="59"/>
     </row>
-    <row r="36" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="36" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56">
         <v>29</v>
       </c>
@@ -37289,7 +37796,7 @@
       </c>
       <c r="AF36" s="59"/>
     </row>
-    <row r="37" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="37" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56">
         <v>30</v>
       </c>
@@ -37396,7 +37903,7 @@
       </c>
       <c r="AF37" s="59"/>
     </row>
-    <row r="38" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="38" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56">
         <v>31</v>
       </c>
@@ -37503,7 +38010,7 @@
       </c>
       <c r="AF38" s="59"/>
     </row>
-    <row r="39" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="39" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56">
         <v>32</v>
       </c>
@@ -37610,7 +38117,7 @@
       </c>
       <c r="AF39" s="59"/>
     </row>
-    <row r="40" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="40" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56">
         <v>33</v>
       </c>
@@ -37717,7 +38224,7 @@
       </c>
       <c r="AF40" s="59"/>
     </row>
-    <row r="41" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="41" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56">
         <v>34</v>
       </c>
@@ -37824,7 +38331,7 @@
       </c>
       <c r="AF41" s="59"/>
     </row>
-    <row r="42" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="42" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56">
         <v>35</v>
       </c>
@@ -37931,7 +38438,7 @@
       </c>
       <c r="AF42" s="59"/>
     </row>
-    <row r="43" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="43" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56">
         <v>36</v>
       </c>
@@ -38038,7 +38545,7 @@
       </c>
       <c r="AF43" s="59"/>
     </row>
-    <row r="44" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="44" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56">
         <v>37</v>
       </c>
@@ -38145,7 +38652,7 @@
       </c>
       <c r="AF44" s="59"/>
     </row>
-    <row r="45" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="45" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56">
         <v>38</v>
       </c>
@@ -38252,7 +38759,7 @@
       </c>
       <c r="AF45" s="59"/>
     </row>
-    <row r="46" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="46" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56">
         <v>39</v>
       </c>
@@ -38359,7 +38866,7 @@
       </c>
       <c r="AF46" s="59"/>
     </row>
-    <row r="47" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="47" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56">
         <v>40</v>
       </c>
@@ -38466,7 +38973,7 @@
       </c>
       <c r="AF47" s="59"/>
     </row>
-    <row r="48" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="48" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56">
         <v>41</v>
       </c>
@@ -38573,7 +39080,7 @@
       </c>
       <c r="AF48" s="59"/>
     </row>
-    <row r="49" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="49" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56">
         <v>42</v>
       </c>
@@ -38680,7 +39187,7 @@
       </c>
       <c r="AF49" s="59"/>
     </row>
-    <row r="50" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1">
+    <row r="50" spans="1:32" s="51" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56">
         <v>43</v>
       </c>
@@ -38787,7 +39294,7 @@
       </c>
       <c r="AF50" s="59"/>
     </row>
-    <row r="51" spans="1:32" ht="107.25" customHeight="1">
+    <row r="51" spans="1:32" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="56">
         <v>44</v>
       </c>
@@ -38894,7 +39401,7 @@
       </c>
       <c r="AF51" s="59"/>
     </row>
-    <row r="52" spans="1:32" ht="107.25" customHeight="1">
+    <row r="52" spans="1:32" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="56">
         <v>45</v>
       </c>
@@ -39001,7 +39508,7 @@
       </c>
       <c r="AF52" s="59"/>
     </row>
-    <row r="53" spans="1:32" ht="107.25" customHeight="1">
+    <row r="53" spans="1:32" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="56">
         <v>46</v>
       </c>
@@ -39108,7 +39615,7 @@
       </c>
       <c r="AF53" s="68"/>
     </row>
-    <row r="54" spans="1:32" ht="107.25" customHeight="1">
+    <row r="54" spans="1:32" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="56">
         <v>47</v>
       </c>
@@ -39215,7 +39722,7 @@
       </c>
       <c r="AF54" s="59"/>
     </row>
-    <row r="55" spans="1:32" ht="69.75" customHeight="1">
+    <row r="55" spans="1:32" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="56">
         <v>48</v>
       </c>
@@ -39344,62 +39851,62 @@
     <mergeCell ref="K4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H55">
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J55">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K55">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M55">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N55">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P55">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q55">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S55">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V55">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y55">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB55">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
